--- a/BPS_FH_Dataset/15/chords.xlsx
+++ b/BPS_FH_Dataset/15/chords.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Data Set\BPS Dataset\15 x\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Dataset\BPS Dataset\15 r\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12396"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="232">
   <si>
     <t>D</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -447,10 +447,6 @@
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1335,16 +1331,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A486" workbookViewId="0">
-      <selection activeCell="D511" sqref="D511"/>
+    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="A354" sqref="A354"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -1352,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D1" s="1">
         <v>1</v>
@@ -1367,7 +1363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -1390,7 +1386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -1413,7 +1409,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>12</v>
       </c>
@@ -1436,7 +1432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>15</v>
       </c>
@@ -1459,7 +1455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>18</v>
       </c>
@@ -1482,7 +1478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>21</v>
       </c>
@@ -1505,7 +1501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>24</v>
       </c>
@@ -1528,7 +1524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>27</v>
       </c>
@@ -1551,7 +1547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>33</v>
       </c>
@@ -1574,7 +1570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>36</v>
       </c>
@@ -1597,7 +1593,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>39</v>
       </c>
@@ -1620,7 +1616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>42</v>
       </c>
@@ -1643,7 +1639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45</v>
       </c>
@@ -1666,7 +1662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>48</v>
       </c>
@@ -1689,7 +1685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>51</v>
       </c>
@@ -1712,7 +1708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>54</v>
       </c>
@@ -1735,7 +1731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>57</v>
       </c>
@@ -1758,7 +1754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>60</v>
       </c>
@@ -1781,7 +1777,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>64</v>
       </c>
@@ -1804,7 +1800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>65</v>
       </c>
@@ -1827,7 +1823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>66</v>
       </c>
@@ -1850,7 +1846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>71</v>
       </c>
@@ -1873,7 +1869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>72</v>
       </c>
@@ -1896,7 +1892,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>74</v>
       </c>
@@ -1919,7 +1915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>75</v>
       </c>
@@ -1942,7 +1938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>77</v>
       </c>
@@ -1965,7 +1961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>78</v>
       </c>
@@ -1988,7 +1984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>83</v>
       </c>
@@ -2011,7 +2007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>84</v>
       </c>
@@ -2034,7 +2030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>88</v>
       </c>
@@ -2057,7 +2053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>89</v>
       </c>
@@ -2080,7 +2076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>90</v>
       </c>
@@ -2103,7 +2099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>95</v>
       </c>
@@ -2126,7 +2122,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>96</v>
       </c>
@@ -2149,7 +2145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>98</v>
       </c>
@@ -2172,7 +2168,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>99</v>
       </c>
@@ -2195,7 +2191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>101</v>
       </c>
@@ -2218,7 +2214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>102</v>
       </c>
@@ -2241,7 +2237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>107</v>
       </c>
@@ -2264,7 +2260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>108</v>
       </c>
@@ -2287,7 +2283,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>110</v>
       </c>
@@ -2310,7 +2306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>111</v>
       </c>
@@ -2333,7 +2329,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>113</v>
       </c>
@@ -2356,7 +2352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>114</v>
       </c>
@@ -2379,7 +2375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>117</v>
       </c>
@@ -2402,7 +2398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>120</v>
       </c>
@@ -2425,7 +2421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>123</v>
       </c>
@@ -2448,7 +2444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>126</v>
       </c>
@@ -2471,7 +2467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>129</v>
       </c>
@@ -2494,7 +2490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>132</v>
       </c>
@@ -2517,7 +2513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>135</v>
       </c>
@@ -2540,7 +2536,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>138</v>
       </c>
@@ -2563,7 +2559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>141</v>
       </c>
@@ -2586,7 +2582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>144</v>
       </c>
@@ -2609,7 +2605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>147</v>
       </c>
@@ -2632,7 +2628,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>150</v>
       </c>
@@ -2655,7 +2651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>153</v>
       </c>
@@ -2678,7 +2674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>156</v>
       </c>
@@ -2701,7 +2697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>159</v>
       </c>
@@ -2724,7 +2720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>162</v>
       </c>
@@ -2747,7 +2743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>165</v>
       </c>
@@ -2770,7 +2766,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>168</v>
       </c>
@@ -2793,7 +2789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>171</v>
       </c>
@@ -2816,7 +2812,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>174</v>
       </c>
@@ -2839,7 +2835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>186</v>
       </c>
@@ -2862,7 +2858,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>189</v>
       </c>
@@ -2885,7 +2881,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>192</v>
       </c>
@@ -2908,7 +2904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>195</v>
       </c>
@@ -2931,7 +2927,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>198</v>
       </c>
@@ -2954,7 +2950,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>201</v>
       </c>
@@ -2977,7 +2973,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>204</v>
       </c>
@@ -3000,7 +2996,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>206</v>
       </c>
@@ -3023,7 +3019,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>207</v>
       </c>
@@ -3046,7 +3042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>210</v>
       </c>
@@ -3069,7 +3065,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>213</v>
       </c>
@@ -3092,7 +3088,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>216</v>
       </c>
@@ -3115,7 +3111,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>219</v>
       </c>
@@ -3138,7 +3134,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>222</v>
       </c>
@@ -3161,7 +3157,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>225</v>
       </c>
@@ -3172,7 +3168,7 @@
         <v>64</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>65</v>
@@ -3184,7 +3180,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>228</v>
       </c>
@@ -3207,7 +3203,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>233</v>
       </c>
@@ -3218,7 +3214,7 @@
         <v>64</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>65</v>
@@ -3230,7 +3226,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>234</v>
       </c>
@@ -3253,7 +3249,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>236</v>
       </c>
@@ -3264,7 +3260,7 @@
         <v>64</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>65</v>
@@ -3276,7 +3272,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>237</v>
       </c>
@@ -3299,7 +3295,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>239</v>
       </c>
@@ -3310,7 +3306,7 @@
         <v>64</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>65</v>
@@ -3322,7 +3318,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>240</v>
       </c>
@@ -3345,7 +3341,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>245</v>
       </c>
@@ -3368,7 +3364,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>246</v>
       </c>
@@ -3391,7 +3387,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>248</v>
       </c>
@@ -3414,7 +3410,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>249</v>
       </c>
@@ -3437,7 +3433,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>251</v>
       </c>
@@ -3460,7 +3456,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>252</v>
       </c>
@@ -3483,7 +3479,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>258</v>
       </c>
@@ -3506,7 +3502,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>260</v>
       </c>
@@ -3529,7 +3525,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>261</v>
       </c>
@@ -3552,7 +3548,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>263</v>
       </c>
@@ -3575,7 +3571,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>264</v>
       </c>
@@ -3598,7 +3594,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>270</v>
       </c>
@@ -3621,7 +3617,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>272</v>
       </c>
@@ -3644,7 +3640,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>273</v>
       </c>
@@ -3667,7 +3663,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>275</v>
       </c>
@@ -3690,7 +3686,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>276</v>
       </c>
@@ -3713,7 +3709,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>281</v>
       </c>
@@ -3736,7 +3732,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>282</v>
       </c>
@@ -3759,7 +3755,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>284</v>
       </c>
@@ -3782,7 +3778,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>285</v>
       </c>
@@ -3805,7 +3801,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>287</v>
       </c>
@@ -3828,7 +3824,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>288</v>
       </c>
@@ -3851,7 +3847,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>293</v>
       </c>
@@ -3874,7 +3870,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>294</v>
       </c>
@@ -3897,7 +3893,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>296</v>
       </c>
@@ -3920,7 +3916,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>297</v>
       </c>
@@ -3943,7 +3939,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>299</v>
       </c>
@@ -3966,7 +3962,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>300</v>
       </c>
@@ -3989,7 +3985,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>302</v>
       </c>
@@ -4012,7 +4008,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>303</v>
       </c>
@@ -4035,7 +4031,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>305</v>
       </c>
@@ -4058,7 +4054,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>306</v>
       </c>
@@ -4081,7 +4077,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>312</v>
       </c>
@@ -4104,7 +4100,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>318</v>
       </c>
@@ -4127,7 +4123,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>321</v>
       </c>
@@ -4150,7 +4146,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>324</v>
       </c>
@@ -4173,7 +4169,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>329</v>
       </c>
@@ -4196,7 +4192,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>330</v>
       </c>
@@ -4219,7 +4215,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>332</v>
       </c>
@@ -4242,7 +4238,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>333</v>
       </c>
@@ -4265,7 +4261,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>335</v>
       </c>
@@ -4288,7 +4284,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>336</v>
       </c>
@@ -4311,7 +4307,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>341</v>
       </c>
@@ -4321,8 +4317,8 @@
       <c r="C130" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>106</v>
+      <c r="D130" s="1">
+        <v>5</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>57</v>
@@ -4331,10 +4327,10 @@
         <v>1</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>342</v>
       </c>
@@ -4357,7 +4353,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>344</v>
       </c>
@@ -4380,7 +4376,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>345</v>
       </c>
@@ -4403,7 +4399,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>347</v>
       </c>
@@ -4426,7 +4422,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>348</v>
       </c>
@@ -4434,7 +4430,7 @@
         <v>353</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D135" s="1">
         <v>6</v>
@@ -4449,7 +4445,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>353</v>
       </c>
@@ -4463,16 +4459,16 @@
         <v>80</v>
       </c>
       <c r="E136" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1</v>
+      </c>
+      <c r="G136" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F136" s="1">
-        <v>1</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>354</v>
       </c>
@@ -4480,7 +4476,7 @@
         <v>356</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D137" s="1">
         <v>6</v>
@@ -4495,7 +4491,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>356</v>
       </c>
@@ -4509,16 +4505,16 @@
         <v>80</v>
       </c>
       <c r="E138" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1</v>
+      </c>
+      <c r="G138" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F138" s="1">
-        <v>1</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>357</v>
       </c>
@@ -4526,7 +4522,7 @@
         <v>359</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D139" s="1">
         <v>6</v>
@@ -4541,7 +4537,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>359</v>
       </c>
@@ -4552,19 +4548,19 @@
         <v>36</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F140" s="1">
         <v>3</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>360</v>
       </c>
@@ -4584,10 +4580,10 @@
         <v>1</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>362</v>
       </c>
@@ -4598,19 +4594,19 @@
         <v>36</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E142" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F142" s="1">
+        <v>1</v>
+      </c>
+      <c r="G142" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F142" s="1">
-        <v>1</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>363</v>
       </c>
@@ -4630,10 +4626,10 @@
         <v>1</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>365</v>
       </c>
@@ -4644,19 +4640,19 @@
         <v>36</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="F144" s="1">
         <v>3</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>366</v>
       </c>
@@ -4670,16 +4666,16 @@
         <v>5</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F145" s="1">
         <v>1</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>368</v>
       </c>
@@ -4690,19 +4686,19 @@
         <v>36</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E146" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F146" s="1">
+        <v>1</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F146" s="1">
-        <v>1</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>369</v>
       </c>
@@ -4710,22 +4706,22 @@
         <v>371</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D147" s="1">
+        <v>5</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D147" s="1">
-        <v>5</v>
-      </c>
-      <c r="E147" s="1" t="s">
+      <c r="F147" s="1">
+        <v>0</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F147" s="1">
-        <v>0</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>371</v>
       </c>
@@ -4745,10 +4741,10 @@
         <v>3</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>372</v>
       </c>
@@ -4771,7 +4767,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>378</v>
       </c>
@@ -4782,7 +4778,7 @@
         <v>72</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>73</v>
@@ -4791,10 +4787,10 @@
         <v>2</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>384</v>
       </c>
@@ -4808,16 +4804,16 @@
         <v>1</v>
       </c>
       <c r="E151" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F151" s="1">
+        <v>2</v>
+      </c>
+      <c r="G151" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F151" s="1">
-        <v>2</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>401</v>
       </c>
@@ -4840,7 +4836,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>402</v>
       </c>
@@ -4863,7 +4859,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>408</v>
       </c>
@@ -4886,7 +4882,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>411</v>
       </c>
@@ -4909,7 +4905,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>414</v>
       </c>
@@ -4932,7 +4928,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>417</v>
       </c>
@@ -4946,16 +4942,16 @@
         <v>4</v>
       </c>
       <c r="E157" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F157" s="1">
+        <v>1</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F157" s="1">
-        <v>1</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>420</v>
       </c>
@@ -4975,10 +4971,10 @@
         <v>0</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>423</v>
       </c>
@@ -5001,7 +4997,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>426</v>
       </c>
@@ -5024,7 +5020,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>432</v>
       </c>
@@ -5047,7 +5043,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>435</v>
       </c>
@@ -5070,7 +5066,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>438</v>
       </c>
@@ -5093,7 +5089,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>441</v>
       </c>
@@ -5107,16 +5103,16 @@
         <v>4</v>
       </c>
       <c r="E164" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F164" s="1">
+        <v>1</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F164" s="1">
-        <v>1</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>444</v>
       </c>
@@ -5136,10 +5132,10 @@
         <v>0</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>447</v>
       </c>
@@ -5162,7 +5158,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>450</v>
       </c>
@@ -5185,7 +5181,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>453</v>
       </c>
@@ -5199,16 +5195,16 @@
         <v>4</v>
       </c>
       <c r="E168" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F168" s="1">
+        <v>1</v>
+      </c>
+      <c r="G168" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F168" s="1">
-        <v>1</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>456</v>
       </c>
@@ -5228,10 +5224,10 @@
         <v>0</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>459</v>
       </c>
@@ -5254,7 +5250,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>462</v>
       </c>
@@ -5277,7 +5273,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>465</v>
       </c>
@@ -5300,7 +5296,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>468</v>
       </c>
@@ -5323,7 +5319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>471</v>
       </c>
@@ -5346,7 +5342,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>474</v>
       </c>
@@ -5369,7 +5365,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>477</v>
       </c>
@@ -5377,7 +5373,7 @@
         <v>486</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D176" s="1">
         <v>5</v>
@@ -5392,7 +5388,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4">
         <v>486</v>
       </c>
@@ -5415,7 +5411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>489</v>
       </c>
@@ -5438,7 +5434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>492</v>
       </c>
@@ -5461,7 +5457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>498</v>
       </c>
@@ -5484,7 +5480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>501</v>
       </c>
@@ -5507,7 +5503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>504</v>
       </c>
@@ -5530,7 +5526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>507</v>
       </c>
@@ -5553,7 +5549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>510</v>
       </c>
@@ -5576,7 +5572,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>513</v>
       </c>
@@ -5599,7 +5595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>519</v>
       </c>
@@ -5622,7 +5618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>522</v>
       </c>
@@ -5645,7 +5641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>525</v>
       </c>
@@ -5668,7 +5664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>528</v>
       </c>
@@ -5691,7 +5687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>531</v>
       </c>
@@ -5714,7 +5710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>534</v>
       </c>
@@ -5737,7 +5733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>537</v>
       </c>
@@ -5760,7 +5756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>540</v>
       </c>
@@ -5783,7 +5779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>543</v>
       </c>
@@ -5806,7 +5802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>546</v>
       </c>
@@ -5829,7 +5825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>550</v>
       </c>
@@ -5852,7 +5848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>551</v>
       </c>
@@ -5875,7 +5871,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>552</v>
       </c>
@@ -5898,7 +5894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>557</v>
       </c>
@@ -5921,7 +5917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>558</v>
       </c>
@@ -5944,7 +5940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>560</v>
       </c>
@@ -5967,7 +5963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>561</v>
       </c>
@@ -5990,7 +5986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>563</v>
       </c>
@@ -6013,7 +6009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>564</v>
       </c>
@@ -6036,7 +6032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>569</v>
       </c>
@@ -6059,7 +6055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>570</v>
       </c>
@@ -6082,7 +6078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>574</v>
       </c>
@@ -6105,7 +6101,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>575</v>
       </c>
@@ -6128,7 +6124,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>576</v>
       </c>
@@ -6151,7 +6147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>581</v>
       </c>
@@ -6174,7 +6170,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>582</v>
       </c>
@@ -6197,7 +6193,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>584</v>
       </c>
@@ -6220,7 +6216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>585</v>
       </c>
@@ -6243,7 +6239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>587</v>
       </c>
@@ -6266,7 +6262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>588</v>
       </c>
@@ -6289,7 +6285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>593</v>
       </c>
@@ -6312,7 +6308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>594</v>
       </c>
@@ -6335,7 +6331,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>596</v>
       </c>
@@ -6358,7 +6354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>597</v>
       </c>
@@ -6381,7 +6377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>599</v>
       </c>
@@ -6404,7 +6400,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>600</v>
       </c>
@@ -6427,7 +6423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>603</v>
       </c>
@@ -6450,7 +6446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>606</v>
       </c>
@@ -6473,7 +6469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>609</v>
       </c>
@@ -6496,7 +6492,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>612</v>
       </c>
@@ -6519,7 +6515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>615</v>
       </c>
@@ -6542,7 +6538,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>618</v>
       </c>
@@ -6565,7 +6561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>621</v>
       </c>
@@ -6588,7 +6584,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>624</v>
       </c>
@@ -6611,7 +6607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>627</v>
       </c>
@@ -6634,7 +6630,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>630</v>
       </c>
@@ -6657,7 +6653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>633</v>
       </c>
@@ -6680,7 +6676,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>636</v>
       </c>
@@ -6703,7 +6699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>639</v>
       </c>
@@ -6726,7 +6722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>642</v>
       </c>
@@ -6749,7 +6745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>645</v>
       </c>
@@ -6772,7 +6768,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>648</v>
       </c>
@@ -6795,7 +6791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>651</v>
       </c>
@@ -6818,7 +6814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>654</v>
       </c>
@@ -6841,7 +6837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>657</v>
       </c>
@@ -6864,7 +6860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>660</v>
       </c>
@@ -6887,7 +6883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>672</v>
       </c>
@@ -6910,7 +6906,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>675</v>
       </c>
@@ -6933,7 +6929,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>678</v>
       </c>
@@ -6956,7 +6952,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>681</v>
       </c>
@@ -6979,7 +6975,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>684</v>
       </c>
@@ -7002,7 +6998,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>687</v>
       </c>
@@ -7025,7 +7021,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>690</v>
       </c>
@@ -7048,7 +7044,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>692</v>
       </c>
@@ -7071,7 +7067,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>693</v>
       </c>
@@ -7094,7 +7090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>696</v>
       </c>
@@ -7117,7 +7113,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>699</v>
       </c>
@@ -7140,7 +7136,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>702</v>
       </c>
@@ -7163,7 +7159,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>705</v>
       </c>
@@ -7186,7 +7182,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>708</v>
       </c>
@@ -7209,7 +7205,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>711</v>
       </c>
@@ -7220,7 +7216,7 @@
         <v>64</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>65</v>
@@ -7232,7 +7228,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>714</v>
       </c>
@@ -7255,7 +7251,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>719</v>
       </c>
@@ -7266,7 +7262,7 @@
         <v>64</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>65</v>
@@ -7278,7 +7274,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>720</v>
       </c>
@@ -7301,7 +7297,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>722</v>
       </c>
@@ -7312,7 +7308,7 @@
         <v>64</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>65</v>
@@ -7324,7 +7320,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>723</v>
       </c>
@@ -7347,7 +7343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>725</v>
       </c>
@@ -7358,7 +7354,7 @@
         <v>64</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>65</v>
@@ -7370,7 +7366,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>726</v>
       </c>
@@ -7393,7 +7389,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>731</v>
       </c>
@@ -7416,7 +7412,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>732</v>
       </c>
@@ -7439,7 +7435,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>734</v>
       </c>
@@ -7462,7 +7458,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>735</v>
       </c>
@@ -7485,7 +7481,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>737</v>
       </c>
@@ -7508,7 +7504,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>738</v>
       </c>
@@ -7531,7 +7527,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>744</v>
       </c>
@@ -7554,7 +7550,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>746</v>
       </c>
@@ -7577,7 +7573,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>747</v>
       </c>
@@ -7600,7 +7596,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>749</v>
       </c>
@@ -7623,7 +7619,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>750</v>
       </c>
@@ -7646,7 +7642,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>756</v>
       </c>
@@ -7669,7 +7665,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>758</v>
       </c>
@@ -7692,7 +7688,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>759</v>
       </c>
@@ -7715,7 +7711,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>761</v>
       </c>
@@ -7738,7 +7734,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>762</v>
       </c>
@@ -7761,7 +7757,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>767</v>
       </c>
@@ -7784,7 +7780,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>768</v>
       </c>
@@ -7807,7 +7803,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>770</v>
       </c>
@@ -7830,7 +7826,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>771</v>
       </c>
@@ -7853,7 +7849,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>773</v>
       </c>
@@ -7876,7 +7872,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>774</v>
       </c>
@@ -7899,7 +7895,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>779</v>
       </c>
@@ -7922,7 +7918,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>780</v>
       </c>
@@ -7945,7 +7941,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>782</v>
       </c>
@@ -7968,7 +7964,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>783</v>
       </c>
@@ -7991,7 +7987,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>785</v>
       </c>
@@ -8014,7 +8010,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>786</v>
       </c>
@@ -8037,7 +8033,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>788</v>
       </c>
@@ -8060,7 +8056,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>789</v>
       </c>
@@ -8083,7 +8079,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>791</v>
       </c>
@@ -8106,7 +8102,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>792</v>
       </c>
@@ -8129,7 +8125,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>798</v>
       </c>
@@ -8152,7 +8148,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>804</v>
       </c>
@@ -8175,7 +8171,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>807</v>
       </c>
@@ -8198,7 +8194,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>810</v>
       </c>
@@ -8221,7 +8217,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>815</v>
       </c>
@@ -8244,7 +8240,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>816</v>
       </c>
@@ -8267,7 +8263,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>818</v>
       </c>
@@ -8290,7 +8286,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>819</v>
       </c>
@@ -8313,7 +8309,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>821</v>
       </c>
@@ -8336,7 +8332,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>822</v>
       </c>
@@ -8359,7 +8355,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>827</v>
       </c>
@@ -8369,8 +8365,8 @@
       <c r="C306" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D306" s="1" t="s">
-        <v>106</v>
+      <c r="D306" s="1">
+        <v>5</v>
       </c>
       <c r="E306" s="1" t="s">
         <v>57</v>
@@ -8379,10 +8375,10 @@
         <v>1</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>828</v>
       </c>
@@ -8405,7 +8401,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>830</v>
       </c>
@@ -8428,7 +8424,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>831</v>
       </c>
@@ -8451,7 +8447,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>833</v>
       </c>
@@ -8474,7 +8470,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>834</v>
       </c>
@@ -8482,7 +8478,7 @@
         <v>839</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D311" s="1">
         <v>6</v>
@@ -8497,7 +8493,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>839</v>
       </c>
@@ -8511,16 +8507,16 @@
         <v>80</v>
       </c>
       <c r="E312" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F312" s="1">
+        <v>1</v>
+      </c>
+      <c r="G312" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F312" s="1">
-        <v>1</v>
-      </c>
-      <c r="G312" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>840</v>
       </c>
@@ -8528,7 +8524,7 @@
         <v>842</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D313" s="1">
         <v>6</v>
@@ -8543,7 +8539,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>842</v>
       </c>
@@ -8557,16 +8553,16 @@
         <v>80</v>
       </c>
       <c r="E314" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F314" s="1">
+        <v>1</v>
+      </c>
+      <c r="G314" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F314" s="1">
-        <v>1</v>
-      </c>
-      <c r="G314" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>843</v>
       </c>
@@ -8574,7 +8570,7 @@
         <v>845</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D315" s="1">
         <v>6</v>
@@ -8589,7 +8585,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>845</v>
       </c>
@@ -8600,19 +8596,19 @@
         <v>36</v>
       </c>
       <c r="D316" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E316" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E316" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F316" s="1">
         <v>3</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>846</v>
       </c>
@@ -8632,10 +8628,10 @@
         <v>1</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>848</v>
       </c>
@@ -8646,19 +8642,19 @@
         <v>36</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E318" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F318" s="1">
+        <v>1</v>
+      </c>
+      <c r="G318" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F318" s="1">
-        <v>1</v>
-      </c>
-      <c r="G318" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>849</v>
       </c>
@@ -8678,10 +8674,10 @@
         <v>1</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>851</v>
       </c>
@@ -8692,19 +8688,19 @@
         <v>36</v>
       </c>
       <c r="D320" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E320" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="E320" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="F320" s="1">
         <v>3</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>852</v>
       </c>
@@ -8718,16 +8714,16 @@
         <v>5</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F321" s="1">
         <v>1</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>854</v>
       </c>
@@ -8738,42 +8734,42 @@
         <v>36</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E322" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F322" s="1">
+        <v>1</v>
+      </c>
+      <c r="G322" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F322" s="1">
-        <v>1</v>
-      </c>
-      <c r="G322" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>882</v>
+        <v>855</v>
       </c>
       <c r="B323">
         <v>857</v>
       </c>
       <c r="C323" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D323" s="1">
+        <v>5</v>
+      </c>
+      <c r="E323" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D323" s="1">
-        <v>5</v>
-      </c>
-      <c r="E323" s="1" t="s">
+      <c r="F323" s="1">
+        <v>0</v>
+      </c>
+      <c r="G323" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F323" s="1">
-        <v>0</v>
-      </c>
-      <c r="G323" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>857</v>
       </c>
@@ -8793,10 +8789,10 @@
         <v>3</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>858</v>
       </c>
@@ -8819,7 +8815,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>864</v>
       </c>
@@ -8830,7 +8826,7 @@
         <v>72</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>73</v>
@@ -8839,10 +8835,10 @@
         <v>2</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>870</v>
       </c>
@@ -8856,16 +8852,16 @@
         <v>1</v>
       </c>
       <c r="E327" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F327" s="1">
+        <v>2</v>
+      </c>
+      <c r="G327" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F327" s="1">
-        <v>2</v>
-      </c>
-      <c r="G327" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>887</v>
       </c>
@@ -8888,7 +8884,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>888</v>
       </c>
@@ -8911,7 +8907,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>894</v>
       </c>
@@ -8934,7 +8930,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>897</v>
       </c>
@@ -8957,7 +8953,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>900</v>
       </c>
@@ -8980,7 +8976,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>903</v>
       </c>
@@ -8994,16 +8990,16 @@
         <v>4</v>
       </c>
       <c r="E333" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F333" s="1">
+        <v>1</v>
+      </c>
+      <c r="G333" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F333" s="1">
-        <v>1</v>
-      </c>
-      <c r="G333" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>906</v>
       </c>
@@ -9023,10 +9019,10 @@
         <v>0</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>909</v>
       </c>
@@ -9049,7 +9045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>912</v>
       </c>
@@ -9072,7 +9068,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>918</v>
       </c>
@@ -9095,7 +9091,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>921</v>
       </c>
@@ -9118,7 +9114,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>924</v>
       </c>
@@ -9141,7 +9137,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>927</v>
       </c>
@@ -9155,16 +9151,16 @@
         <v>4</v>
       </c>
       <c r="E340" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F340" s="1">
+        <v>1</v>
+      </c>
+      <c r="G340" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F340" s="1">
-        <v>1</v>
-      </c>
-      <c r="G340" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>930</v>
       </c>
@@ -9184,10 +9180,10 @@
         <v>0</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>933</v>
       </c>
@@ -9210,7 +9206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>936</v>
       </c>
@@ -9233,7 +9229,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>939</v>
       </c>
@@ -9247,16 +9243,16 @@
         <v>4</v>
       </c>
       <c r="E344" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F344" s="1">
+        <v>1</v>
+      </c>
+      <c r="G344" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F344" s="1">
-        <v>1</v>
-      </c>
-      <c r="G344" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>942</v>
       </c>
@@ -9276,10 +9272,10 @@
         <v>0</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>945</v>
       </c>
@@ -9302,7 +9298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>948</v>
       </c>
@@ -9325,7 +9321,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>951</v>
       </c>
@@ -9348,7 +9344,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>954</v>
       </c>
@@ -9371,7 +9367,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>957</v>
       </c>
@@ -9394,7 +9390,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>960</v>
       </c>
@@ -9417,7 +9413,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="352" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="5">
         <v>963</v>
       </c>
@@ -9425,7 +9421,7 @@
         <v>972</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D352" s="6">
         <v>5</v>
@@ -9440,7 +9436,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>972</v>
       </c>
@@ -9448,45 +9444,45 @@
         <v>978</v>
       </c>
       <c r="C353" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D353" s="1">
+        <v>5</v>
+      </c>
+      <c r="E353" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D353" s="1">
-        <v>5</v>
-      </c>
-      <c r="E353" s="1" t="s">
+      <c r="F353" s="1">
+        <v>1</v>
+      </c>
+      <c r="G353" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F353" s="1">
-        <v>1</v>
-      </c>
-      <c r="G353" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
-        <v>798</v>
+        <v>978</v>
       </c>
       <c r="B354" s="1">
         <v>984</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D354" s="1">
         <v>5</v>
       </c>
       <c r="E354" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F354" s="1">
+        <v>1</v>
+      </c>
+      <c r="G354" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F354" s="1">
-        <v>1</v>
-      </c>
-      <c r="G354" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>984</v>
       </c>
@@ -9494,7 +9490,7 @@
         <v>987</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D355" s="1">
         <v>1</v>
@@ -9509,7 +9505,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>987</v>
       </c>
@@ -9517,22 +9513,22 @@
         <v>990</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F356" s="1">
         <v>0</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>990</v>
       </c>
@@ -9540,7 +9536,7 @@
         <v>993</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D357" s="1">
         <v>4</v>
@@ -9552,10 +9548,10 @@
         <v>0</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>993</v>
       </c>
@@ -9563,7 +9559,7 @@
         <v>996</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D358" s="1">
         <v>4</v>
@@ -9575,10 +9571,10 @@
         <v>1</v>
       </c>
       <c r="G358" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>996</v>
       </c>
@@ -9586,22 +9582,22 @@
         <v>999</v>
       </c>
       <c r="C359" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D359" s="1">
+        <v>2</v>
+      </c>
+      <c r="E359" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D359" s="1">
-        <v>2</v>
-      </c>
-      <c r="E359" s="1" t="s">
+      <c r="F359" s="1">
+        <v>0</v>
+      </c>
+      <c r="G359" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F359" s="1">
-        <v>0</v>
-      </c>
-      <c r="G359" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>999</v>
       </c>
@@ -9609,22 +9605,22 @@
         <v>1002</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D360" s="1">
         <v>5</v>
       </c>
       <c r="E360" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F360" s="1">
+        <v>1</v>
+      </c>
+      <c r="G360" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F360" s="1">
-        <v>1</v>
-      </c>
-      <c r="G360" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>1002</v>
       </c>
@@ -9632,7 +9628,7 @@
         <v>1005</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D361" s="1">
         <v>1</v>
@@ -9647,7 +9643,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>1005</v>
       </c>
@@ -9655,7 +9651,7 @@
         <v>1008</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D362" s="1">
         <v>1</v>
@@ -9670,7 +9666,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>1008</v>
       </c>
@@ -9678,7 +9674,7 @@
         <v>1011</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D363" s="1">
         <v>5</v>
@@ -9693,7 +9689,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>1011</v>
       </c>
@@ -9701,7 +9697,7 @@
         <v>1014</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D364" s="1">
         <v>1</v>
@@ -9716,7 +9712,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>1014</v>
       </c>
@@ -9724,7 +9720,7 @@
         <v>1020</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D365" s="1">
         <v>5</v>
@@ -9739,7 +9735,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>1020</v>
       </c>
@@ -9747,7 +9743,7 @@
         <v>1023</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D366" s="1">
         <v>4</v>
@@ -9759,10 +9755,10 @@
         <v>0</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>1023</v>
       </c>
@@ -9770,7 +9766,7 @@
         <v>1026</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D367" s="1">
         <v>4</v>
@@ -9782,10 +9778,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>1026</v>
       </c>
@@ -9793,22 +9789,22 @@
         <v>1029</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D368" s="1">
         <v>2</v>
       </c>
       <c r="E368" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F368" s="1">
+        <v>0</v>
+      </c>
+      <c r="G368" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F368" s="1">
-        <v>0</v>
-      </c>
-      <c r="G368" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>1029</v>
       </c>
@@ -9816,22 +9812,22 @@
         <v>1032</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D369" s="1">
         <v>7</v>
       </c>
       <c r="E369" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F369" s="1">
+        <v>0</v>
+      </c>
+      <c r="G369" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F369" s="1">
-        <v>0</v>
-      </c>
-      <c r="G369" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>1032</v>
       </c>
@@ -9839,7 +9835,7 @@
         <v>1038</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D370" s="1">
         <v>1</v>
@@ -9851,10 +9847,10 @@
         <v>0</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>1038</v>
       </c>
@@ -9862,7 +9858,7 @@
         <v>1041</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D371" s="1">
         <v>5</v>
@@ -9877,7 +9873,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>1041</v>
       </c>
@@ -9885,7 +9881,7 @@
         <v>1044</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D372" s="1">
         <v>1</v>
@@ -9897,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>1044</v>
       </c>
@@ -9908,7 +9904,7 @@
         <v>1047</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D373" s="1">
         <v>5</v>
@@ -9923,7 +9919,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>1047</v>
       </c>
@@ -9931,7 +9927,7 @@
         <v>1050</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D374" s="1">
         <v>1</v>
@@ -9943,10 +9939,10 @@
         <v>0</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>1050</v>
       </c>
@@ -9954,22 +9950,22 @@
         <v>1053</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D375" s="1">
         <v>5</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F375" s="1">
         <v>1</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>1053</v>
       </c>
@@ -9977,7 +9973,7 @@
         <v>1056</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D376" s="1">
         <v>1</v>
@@ -9989,10 +9985,10 @@
         <v>0</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>1056</v>
       </c>
@@ -10000,7 +9996,7 @@
         <v>1059</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D377" s="1">
         <v>5</v>
@@ -10015,7 +10011,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>1059</v>
       </c>
@@ -10023,7 +10019,7 @@
         <v>1062</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D378" s="1">
         <v>1</v>
@@ -10035,10 +10031,10 @@
         <v>0</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>1062</v>
       </c>
@@ -10046,22 +10042,22 @@
         <v>1065</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D379" s="1">
         <v>5</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F379" s="1">
         <v>1</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>1065</v>
       </c>
@@ -10069,7 +10065,7 @@
         <v>1068</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D380" s="1">
         <v>1</v>
@@ -10081,10 +10077,10 @@
         <v>0</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>1068</v>
       </c>
@@ -10092,13 +10088,13 @@
         <v>1071</v>
       </c>
       <c r="C381" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D381" s="1">
+        <v>5</v>
+      </c>
+      <c r="E381" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D381" s="1">
-        <v>5</v>
-      </c>
-      <c r="E381" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="F381" s="1">
         <v>0</v>
@@ -10107,7 +10103,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>1071</v>
       </c>
@@ -10115,7 +10111,7 @@
         <v>1074</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D382" s="1">
         <v>1</v>
@@ -10127,10 +10123,10 @@
         <v>0</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>1074</v>
       </c>
@@ -10138,22 +10134,22 @@
         <v>1077</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D383" s="1">
         <v>5</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F383" s="1">
         <v>1</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>1077</v>
       </c>
@@ -10161,7 +10157,7 @@
         <v>1080</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D384" s="1">
         <v>1</v>
@@ -10173,10 +10169,10 @@
         <v>0</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>1080</v>
       </c>
@@ -10184,22 +10180,22 @@
         <v>1083</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D385" s="1">
         <v>5</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F385" s="1">
         <v>1</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>1083</v>
       </c>
@@ -10207,7 +10203,7 @@
         <v>1086</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D386" s="1">
         <v>1</v>
@@ -10219,10 +10215,10 @@
         <v>0</v>
       </c>
       <c r="G386" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>1086</v>
       </c>
@@ -10230,22 +10226,22 @@
         <v>1089</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D387" s="1">
         <v>5</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F387" s="1">
         <v>1</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>1089</v>
       </c>
@@ -10253,7 +10249,7 @@
         <v>1091</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D388" s="1">
         <v>1</v>
@@ -10265,10 +10261,10 @@
         <v>0</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>1091</v>
       </c>
@@ -10276,22 +10272,22 @@
         <v>1092</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E389" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F389" s="1">
+        <v>1</v>
+      </c>
+      <c r="G389" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F389" s="1">
-        <v>1</v>
-      </c>
-      <c r="G389" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>1092</v>
       </c>
@@ -10305,16 +10301,16 @@
         <v>5</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F390" s="1">
         <v>1</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>1095</v>
       </c>
@@ -10334,10 +10330,10 @@
         <v>0</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>1098</v>
       </c>
@@ -10351,16 +10347,16 @@
         <v>5</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F392" s="1">
         <v>1</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>1101</v>
       </c>
@@ -10380,10 +10376,10 @@
         <v>0</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>1104</v>
       </c>
@@ -10397,16 +10393,16 @@
         <v>5</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F394" s="1">
         <v>1</v>
       </c>
       <c r="G394" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>1107</v>
       </c>
@@ -10426,10 +10422,10 @@
         <v>0</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>1110</v>
       </c>
@@ -10437,7 +10433,7 @@
         <v>1113</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D396" s="1">
         <v>7</v>
@@ -10449,10 +10445,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>1113</v>
       </c>
@@ -10460,7 +10456,7 @@
         <v>1116</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D397" s="1">
         <v>1</v>
@@ -10472,10 +10468,10 @@
         <v>0</v>
       </c>
       <c r="G397" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>1116</v>
       </c>
@@ -10483,7 +10479,7 @@
         <v>1119</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D398" s="1">
         <v>5</v>
@@ -10495,10 +10491,10 @@
         <v>0</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>1119</v>
       </c>
@@ -10506,7 +10502,7 @@
         <v>1122</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D399" s="1">
         <v>1</v>
@@ -10518,10 +10514,10 @@
         <v>0</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>1122</v>
       </c>
@@ -10529,7 +10525,7 @@
         <v>1125</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D400" s="1">
         <v>7</v>
@@ -10541,10 +10537,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>1125</v>
       </c>
@@ -10552,7 +10548,7 @@
         <v>1128</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D401" s="1">
         <v>1</v>
@@ -10564,10 +10560,10 @@
         <v>0</v>
       </c>
       <c r="G401" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>1128</v>
       </c>
@@ -10575,7 +10571,7 @@
         <v>1131</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D402" s="1">
         <v>5</v>
@@ -10587,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>1131</v>
       </c>
@@ -10598,7 +10594,7 @@
         <v>1134</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D403" s="1">
         <v>1</v>
@@ -10610,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>1134</v>
       </c>
@@ -10621,22 +10617,22 @@
         <v>1140</v>
       </c>
       <c r="C404" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D404" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D404" s="2" t="s">
+      <c r="E404" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E404" s="1" t="s">
+      <c r="F404" s="1">
+        <v>1</v>
+      </c>
+      <c r="G404" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F404" s="1">
-        <v>1</v>
-      </c>
-      <c r="G404" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>1140</v>
       </c>
@@ -10644,22 +10640,22 @@
         <v>1143</v>
       </c>
       <c r="C405" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D405" s="1">
+        <v>5</v>
+      </c>
+      <c r="E405" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D405" s="1">
-        <v>5</v>
-      </c>
-      <c r="E405" s="1" t="s">
+      <c r="F405" s="1">
+        <v>0</v>
+      </c>
+      <c r="G405" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F405" s="1">
-        <v>0</v>
-      </c>
-      <c r="G405" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>1143</v>
       </c>
@@ -10667,22 +10663,22 @@
         <v>1146</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D406" s="1">
         <v>1</v>
       </c>
       <c r="E406" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F406" s="1">
+        <v>2</v>
+      </c>
+      <c r="G406" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F406" s="1">
-        <v>2</v>
-      </c>
-      <c r="G406" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>1146</v>
       </c>
@@ -10690,7 +10686,7 @@
         <v>1149</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D407" s="1">
         <v>5</v>
@@ -10702,10 +10698,10 @@
         <v>0</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>1149</v>
       </c>
@@ -10713,22 +10709,22 @@
         <v>1152</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D408" s="1">
         <v>1</v>
       </c>
       <c r="E408" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F408" s="1">
+        <v>2</v>
+      </c>
+      <c r="G408" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F408" s="1">
-        <v>2</v>
-      </c>
-      <c r="G408" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>1152</v>
       </c>
@@ -10736,22 +10732,22 @@
         <v>1155</v>
       </c>
       <c r="C409" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D409" s="1">
+        <v>5</v>
+      </c>
+      <c r="E409" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D409" s="1">
-        <v>5</v>
-      </c>
-      <c r="E409" s="1" t="s">
+      <c r="F409" s="1">
+        <v>0</v>
+      </c>
+      <c r="G409" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F409" s="1">
-        <v>0</v>
-      </c>
-      <c r="G409" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>1155</v>
       </c>
@@ -10759,22 +10755,22 @@
         <v>1158</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D410" s="1">
         <v>1</v>
       </c>
       <c r="E410" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F410" s="1">
+        <v>2</v>
+      </c>
+      <c r="G410" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F410" s="1">
-        <v>2</v>
-      </c>
-      <c r="G410" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>1158</v>
       </c>
@@ -10782,7 +10778,7 @@
         <v>1161</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D411" s="1">
         <v>5</v>
@@ -10794,10 +10790,10 @@
         <v>0</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>1161</v>
       </c>
@@ -10805,22 +10801,22 @@
         <v>1164</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D412" s="1">
         <v>1</v>
       </c>
       <c r="E412" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F412" s="1">
+        <v>2</v>
+      </c>
+      <c r="G412" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F412" s="1">
-        <v>2</v>
-      </c>
-      <c r="G412" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>1164</v>
       </c>
@@ -10828,22 +10824,22 @@
         <v>1254</v>
       </c>
       <c r="C413" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D413" s="1">
+        <v>5</v>
+      </c>
+      <c r="E413" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D413" s="1">
-        <v>5</v>
-      </c>
-      <c r="E413" s="1" t="s">
+      <c r="F413" s="1">
+        <v>0</v>
+      </c>
+      <c r="G413" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F413" s="1">
-        <v>0</v>
-      </c>
-      <c r="G413" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>1254</v>
       </c>
@@ -10851,22 +10847,22 @@
         <v>1257</v>
       </c>
       <c r="C414" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D414" s="1">
+        <v>1</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F414" s="1">
+        <v>0</v>
+      </c>
+      <c r="G414" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D414" s="1">
-        <v>1</v>
-      </c>
-      <c r="E414" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F414" s="1">
-        <v>0</v>
-      </c>
-      <c r="G414" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>1257</v>
       </c>
@@ -10874,22 +10870,22 @@
         <v>1260</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D415" s="1">
         <v>1</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F415" s="1">
         <v>1</v>
       </c>
       <c r="G415" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>1260</v>
       </c>
@@ -10897,7 +10893,7 @@
         <v>1263</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D416" s="1">
         <v>5</v>
@@ -10909,10 +10905,10 @@
         <v>0</v>
       </c>
       <c r="G416" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>1263</v>
       </c>
@@ -10920,22 +10916,22 @@
         <v>1269</v>
       </c>
       <c r="C417" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D417" s="1">
+        <v>1</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F417" s="1">
+        <v>0</v>
+      </c>
+      <c r="G417" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D417" s="1">
-        <v>1</v>
-      </c>
-      <c r="E417" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F417" s="1">
-        <v>0</v>
-      </c>
-      <c r="G417" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>1269</v>
       </c>
@@ -10943,7 +10939,7 @@
         <v>1272</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D418" s="1">
         <v>1</v>
@@ -10955,10 +10951,10 @@
         <v>0</v>
       </c>
       <c r="G418" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>1272</v>
       </c>
@@ -10966,7 +10962,7 @@
         <v>1275</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D419" s="1">
         <v>1</v>
@@ -10978,10 +10974,10 @@
         <v>1</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>1275</v>
       </c>
@@ -10989,7 +10985,7 @@
         <v>1278</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D420" s="1">
         <v>5</v>
@@ -11001,10 +10997,10 @@
         <v>0</v>
       </c>
       <c r="G420" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>1278</v>
       </c>
@@ -11012,7 +11008,7 @@
         <v>1284</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D421" s="1">
         <v>1</v>
@@ -11024,10 +11020,10 @@
         <v>0</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A422" s="7">
         <v>1284</v>
       </c>
@@ -11035,7 +11031,7 @@
         <v>1290</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D422" s="7">
         <v>5</v>
@@ -11050,7 +11046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>1290</v>
       </c>
@@ -11058,7 +11054,7 @@
         <v>1293</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D423" s="1">
         <v>1</v>
@@ -11073,7 +11069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>1293</v>
       </c>
@@ -11096,7 +11092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>1296</v>
       </c>
@@ -11119,7 +11115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>1302</v>
       </c>
@@ -11142,7 +11138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>1305</v>
       </c>
@@ -11165,7 +11161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>1308</v>
       </c>
@@ -11188,7 +11184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>1311</v>
       </c>
@@ -11211,7 +11207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>1314</v>
       </c>
@@ -11234,7 +11230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>1317</v>
       </c>
@@ -11257,7 +11253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>1320</v>
       </c>
@@ -11280,7 +11276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>1323</v>
       </c>
@@ -11300,10 +11296,10 @@
         <v>1</v>
       </c>
       <c r="G433" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>1326</v>
       </c>
@@ -11311,22 +11307,22 @@
         <v>1329</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D434" s="1">
         <v>4</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F434" s="1">
         <v>0</v>
       </c>
       <c r="G434" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>1329</v>
       </c>
@@ -11334,22 +11330,22 @@
         <v>1332</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D435" s="1">
         <v>4</v>
       </c>
       <c r="E435" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F435" s="1">
+        <v>1</v>
+      </c>
+      <c r="G435" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F435" s="1">
-        <v>1</v>
-      </c>
-      <c r="G435" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>1332</v>
       </c>
@@ -11357,22 +11353,22 @@
         <v>1335</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D436" s="1">
         <v>2</v>
       </c>
       <c r="E436" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F436" s="1">
+        <v>0</v>
+      </c>
+      <c r="G436" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F436" s="1">
-        <v>0</v>
-      </c>
-      <c r="G436" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>1335</v>
       </c>
@@ -11395,7 +11391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>1338</v>
       </c>
@@ -11418,7 +11414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>1341</v>
       </c>
@@ -11441,7 +11437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>1344</v>
       </c>
@@ -11464,7 +11460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>1347</v>
       </c>
@@ -11487,7 +11483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>1350</v>
       </c>
@@ -11510,7 +11506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>1354</v>
       </c>
@@ -11518,22 +11514,22 @@
         <v>1355</v>
       </c>
       <c r="C443" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D443" s="1">
+        <v>2</v>
+      </c>
+      <c r="E443" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D443" s="1">
-        <v>2</v>
-      </c>
-      <c r="E443" s="1" t="s">
+      <c r="F443" s="1">
+        <v>1</v>
+      </c>
+      <c r="G443" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F443" s="1">
-        <v>1</v>
-      </c>
-      <c r="G443" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>1355</v>
       </c>
@@ -11553,10 +11549,10 @@
         <v>2</v>
       </c>
       <c r="G444" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>1356</v>
       </c>
@@ -11564,22 +11560,22 @@
         <v>1361</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D445" s="1">
         <v>4</v>
       </c>
       <c r="E445" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F445" s="1">
+        <v>1</v>
+      </c>
+      <c r="G445" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F445" s="1">
-        <v>1</v>
-      </c>
-      <c r="G445" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>1361</v>
       </c>
@@ -11599,10 +11595,10 @@
         <v>2</v>
       </c>
       <c r="G446" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>1362</v>
       </c>
@@ -11610,22 +11606,22 @@
         <v>1364</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D447" s="1">
         <v>4</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F447" s="1">
         <v>0</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>1364</v>
       </c>
@@ -11633,22 +11629,22 @@
         <v>1365</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D448" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E448" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E448" s="1" t="s">
+      <c r="F448" s="1">
+        <v>1</v>
+      </c>
+      <c r="G448" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F448" s="1">
-        <v>1</v>
-      </c>
-      <c r="G448" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>1365</v>
       </c>
@@ -11656,7 +11652,7 @@
         <v>1367</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D449" s="1">
         <v>5</v>
@@ -11668,10 +11664,10 @@
         <v>0</v>
       </c>
       <c r="G449" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>1367</v>
       </c>
@@ -11694,7 +11690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>1368</v>
       </c>
@@ -11717,7 +11713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>1373</v>
       </c>
@@ -11740,7 +11736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>1374</v>
       </c>
@@ -11763,7 +11759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>1378</v>
       </c>
@@ -11786,7 +11782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>1379</v>
       </c>
@@ -11809,7 +11805,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>1380</v>
       </c>
@@ -11832,7 +11828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>1385</v>
       </c>
@@ -11855,7 +11851,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>1386</v>
       </c>
@@ -11878,7 +11874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>1388</v>
       </c>
@@ -11901,7 +11897,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>1389</v>
       </c>
@@ -11924,7 +11920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>1391</v>
       </c>
@@ -11947,7 +11943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>1392</v>
       </c>
@@ -11970,7 +11966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>1397</v>
       </c>
@@ -11993,7 +11989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>1398</v>
       </c>
@@ -12016,7 +12012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>1400</v>
       </c>
@@ -12039,7 +12035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>1401</v>
       </c>
@@ -12062,7 +12058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>1403</v>
       </c>
@@ -12085,7 +12081,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>1404</v>
       </c>
@@ -12108,7 +12104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>1409</v>
       </c>
@@ -12131,7 +12127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>1410</v>
       </c>
@@ -12154,7 +12150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>1412</v>
       </c>
@@ -12177,7 +12173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>1413</v>
       </c>
@@ -12200,7 +12196,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>1415</v>
       </c>
@@ -12223,7 +12219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>1416</v>
       </c>
@@ -12246,7 +12242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>1419</v>
       </c>
@@ -12254,7 +12250,7 @@
         <v>1422</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D475" s="1">
         <v>2</v>
@@ -12269,7 +12265,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>1422</v>
       </c>
@@ -12277,7 +12273,7 @@
         <v>1425</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D476" s="1">
         <v>1</v>
@@ -12292,7 +12288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>1425</v>
       </c>
@@ -12300,7 +12296,7 @@
         <v>1428</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D477" s="1">
         <v>5</v>
@@ -12315,7 +12311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>1428</v>
       </c>
@@ -12323,7 +12319,7 @@
         <v>1431</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D478" s="1">
         <v>1</v>
@@ -12338,7 +12334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>1431</v>
       </c>
@@ -12361,7 +12357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>1434</v>
       </c>
@@ -12384,7 +12380,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>1437</v>
       </c>
@@ -12407,7 +12403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>1440</v>
       </c>
@@ -12430,7 +12426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>1443</v>
       </c>
@@ -12438,7 +12434,7 @@
         <v>1446</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D483" s="1">
         <v>2</v>
@@ -12453,7 +12449,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>1446</v>
       </c>
@@ -12461,7 +12457,7 @@
         <v>1449</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D484" s="1">
         <v>1</v>
@@ -12476,7 +12472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>1449</v>
       </c>
@@ -12484,7 +12480,7 @@
         <v>1452</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D485" s="1">
         <v>5</v>
@@ -12499,7 +12495,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>1452</v>
       </c>
@@ -12507,7 +12503,7 @@
         <v>1455</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D486" s="1">
         <v>1</v>
@@ -12522,7 +12518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>1455</v>
       </c>
@@ -12545,7 +12541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>1458</v>
       </c>
@@ -12568,7 +12564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>1461</v>
       </c>
@@ -12591,7 +12587,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>1464</v>
       </c>
@@ -12614,7 +12610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>1467</v>
       </c>
@@ -12622,7 +12618,7 @@
         <v>1470</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D491" s="1">
         <v>5</v>
@@ -12637,7 +12633,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>1470</v>
       </c>
@@ -12645,7 +12641,7 @@
         <v>1473</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D492" s="1">
         <v>1</v>
@@ -12660,7 +12656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>1473</v>
       </c>
@@ -12668,7 +12664,7 @@
         <v>1476</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D493" s="1">
         <v>5</v>
@@ -12683,7 +12679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>1476</v>
       </c>
@@ -12691,7 +12687,7 @@
         <v>1479</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D494" s="1">
         <v>1</v>
@@ -12706,7 +12702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>1479</v>
       </c>
@@ -12714,7 +12710,7 @@
         <v>1482</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D495" s="1">
         <v>5</v>
@@ -12729,7 +12725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>1482</v>
       </c>
@@ -12737,7 +12733,7 @@
         <v>1494</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D496" s="1">
         <v>1</v>
@@ -12752,7 +12748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>1494</v>
       </c>
@@ -12760,7 +12756,7 @@
         <v>1497</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D497" s="2" t="s">
         <v>49</v>
@@ -12775,7 +12771,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>1497</v>
       </c>
@@ -12783,7 +12779,7 @@
         <v>1500</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D498" s="1">
         <v>6</v>
@@ -12798,7 +12794,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>1500</v>
       </c>
@@ -12806,7 +12802,7 @@
         <v>1503</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D499" s="2" t="s">
         <v>49</v>
@@ -12821,7 +12817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>1503</v>
       </c>
@@ -12829,7 +12825,7 @@
         <v>1506</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D500" s="1">
         <v>6</v>
@@ -12844,7 +12840,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>1506</v>
       </c>
@@ -12852,7 +12848,7 @@
         <v>1509</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D501" s="2" t="s">
         <v>45</v>
@@ -12867,7 +12863,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>1509</v>
       </c>
@@ -12875,7 +12871,7 @@
         <v>1512</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D502" s="1">
         <v>2</v>
@@ -12890,7 +12886,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>1512</v>
       </c>
@@ -12898,7 +12894,7 @@
         <v>1514</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D503" s="1">
         <v>1</v>
@@ -12913,7 +12909,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>1514</v>
       </c>
@@ -12921,7 +12917,7 @@
         <v>1515</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D504" s="1">
         <v>5</v>
@@ -12936,7 +12932,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>1515</v>
       </c>
@@ -12944,7 +12940,7 @@
         <v>1518</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D505" s="1">
         <v>1</v>
@@ -12959,7 +12955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>1518</v>
       </c>
@@ -12967,7 +12963,7 @@
         <v>1521</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D506" s="2" t="s">
         <v>49</v>
@@ -12982,7 +12978,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>1521</v>
       </c>
@@ -12990,7 +12986,7 @@
         <v>1524</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D507" s="1">
         <v>6</v>
@@ -13005,7 +13001,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>1524</v>
       </c>
@@ -13013,7 +13009,7 @@
         <v>1527</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D508" s="2" t="s">
         <v>49</v>
@@ -13028,7 +13024,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>1527</v>
       </c>
@@ -13036,7 +13032,7 @@
         <v>1530</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D509" s="1">
         <v>6</v>
@@ -13051,7 +13047,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>1530</v>
       </c>
@@ -13059,7 +13055,7 @@
         <v>1533</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D510" s="1">
         <v>2</v>
@@ -13074,7 +13070,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>1533</v>
       </c>
@@ -13082,10 +13078,10 @@
         <v>1536</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E511" s="1" t="s">
         <v>65</v>
@@ -13097,7 +13093,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>1536</v>
       </c>
@@ -13105,7 +13101,7 @@
         <v>1541</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D512" s="1">
         <v>5</v>
@@ -13120,7 +13116,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>1541</v>
       </c>
@@ -13128,10 +13124,10 @@
         <v>1542</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E513" s="1" t="s">
         <v>65</v>
@@ -13143,7 +13139,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>1542</v>
       </c>
@@ -13151,7 +13147,7 @@
         <v>1544</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D514" s="1">
         <v>5</v>
@@ -13166,7 +13162,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>1544</v>
       </c>
@@ -13174,10 +13170,10 @@
         <v>1545</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E515" s="1" t="s">
         <v>65</v>
@@ -13189,7 +13185,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>1545</v>
       </c>
@@ -13197,7 +13193,7 @@
         <v>1547</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D516" s="1">
         <v>5</v>
@@ -13212,7 +13208,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>1547</v>
       </c>
@@ -13220,10 +13216,10 @@
         <v>1548</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E517" s="1" t="s">
         <v>65</v>
@@ -13235,7 +13231,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>1548</v>
       </c>
@@ -13243,7 +13239,7 @@
         <v>1553</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D518" s="1">
         <v>5</v>
@@ -13258,7 +13254,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>1553</v>
       </c>
@@ -13266,7 +13262,7 @@
         <v>1554</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D519" s="1">
         <v>3</v>
@@ -13281,7 +13277,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>1554</v>
       </c>
@@ -13289,7 +13285,7 @@
         <v>1556</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D520" s="1">
         <v>7</v>
@@ -13304,7 +13300,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>1556</v>
       </c>
@@ -13312,7 +13308,7 @@
         <v>1557</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D521" s="1">
         <v>3</v>
@@ -13327,7 +13323,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>1557</v>
       </c>
@@ -13335,7 +13331,7 @@
         <v>1559</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D522" s="1">
         <v>7</v>
@@ -13350,7 +13346,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>1559</v>
       </c>
@@ -13358,7 +13354,7 @@
         <v>1560</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D523" s="1">
         <v>3</v>
@@ -13373,7 +13369,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>1560</v>
       </c>
@@ -13381,7 +13377,7 @@
         <v>1566</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D524" s="1">
         <v>7</v>
@@ -13396,7 +13392,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>1566</v>
       </c>
@@ -13404,7 +13400,7 @@
         <v>1568</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D525" s="1">
         <v>5</v>
@@ -13419,7 +13415,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>1568</v>
       </c>
@@ -13427,7 +13423,7 @@
         <v>1569</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D526" s="2" t="s">
         <v>75</v>
@@ -13442,7 +13438,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>1569</v>
       </c>
@@ -13450,7 +13446,7 @@
         <v>1571</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D527" s="1">
         <v>5</v>
@@ -13465,7 +13461,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>1571</v>
       </c>
@@ -13473,7 +13469,7 @@
         <v>1572</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D528" s="2" t="s">
         <v>75</v>
@@ -13488,7 +13484,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>1572</v>
       </c>
@@ -13496,7 +13492,7 @@
         <v>1578</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D529" s="1">
         <v>5</v>
@@ -13511,7 +13507,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>1578</v>
       </c>
@@ -13519,7 +13515,7 @@
         <v>1580</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D530" s="1">
         <v>1</v>
@@ -13534,7 +13530,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>1580</v>
       </c>
@@ -13542,7 +13538,7 @@
         <v>1581</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D531" s="1">
         <v>5</v>
@@ -13557,7 +13553,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>1581</v>
       </c>
@@ -13565,7 +13561,7 @@
         <v>1583</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D532" s="1">
         <v>1</v>
@@ -13580,7 +13576,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>1583</v>
       </c>
@@ -13588,7 +13584,7 @@
         <v>1584</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D533" s="2" t="s">
         <v>80</v>
@@ -13603,7 +13599,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>1584</v>
       </c>
@@ -13611,7 +13607,7 @@
         <v>1589</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D534" s="1">
         <v>6</v>
@@ -13626,7 +13622,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>1589</v>
       </c>
@@ -13634,7 +13630,7 @@
         <v>1590</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D535" s="2" t="s">
         <v>80</v>
@@ -13649,7 +13645,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>1590</v>
       </c>
@@ -13657,7 +13653,7 @@
         <v>1592</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D536" s="1">
         <v>6</v>
@@ -13672,7 +13668,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>1592</v>
       </c>
@@ -13680,7 +13676,7 @@
         <v>1593</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D537" s="2" t="s">
         <v>80</v>
@@ -13695,7 +13691,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>1593</v>
       </c>
@@ -13703,7 +13699,7 @@
         <v>1595</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D538" s="1">
         <v>6</v>
@@ -13718,7 +13714,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>1595</v>
       </c>
@@ -13726,7 +13722,7 @@
         <v>1596</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D539" s="2" t="s">
         <v>85</v>
@@ -13741,7 +13737,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>1596</v>
       </c>
@@ -13749,7 +13745,7 @@
         <v>1601</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D540" s="1">
         <v>4</v>
@@ -13764,7 +13760,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>1601</v>
       </c>
@@ -13772,7 +13768,7 @@
         <v>1602</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D541" s="2" t="s">
         <v>85</v>
@@ -13787,7 +13783,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>1602</v>
       </c>
@@ -13795,7 +13791,7 @@
         <v>1604</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D542" s="1">
         <v>4</v>
@@ -13810,7 +13806,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>1604</v>
       </c>
@@ -13818,7 +13814,7 @@
         <v>1605</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D543" s="2" t="s">
         <v>85</v>
@@ -13833,7 +13829,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>1605</v>
       </c>
@@ -13841,7 +13837,7 @@
         <v>1607</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D544" s="1">
         <v>4</v>
@@ -13856,7 +13852,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>1607</v>
       </c>
@@ -13864,7 +13860,7 @@
         <v>1608</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D545" s="1">
         <v>5</v>
@@ -13879,7 +13875,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>1608</v>
       </c>
@@ -13887,7 +13883,7 @@
         <v>1610</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D546" s="1">
         <v>1</v>
@@ -13902,7 +13898,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>1610</v>
       </c>
@@ -13910,7 +13906,7 @@
         <v>1611</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D547" s="1">
         <v>5</v>
@@ -13925,7 +13921,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>1611</v>
       </c>
@@ -13933,7 +13929,7 @@
         <v>1613</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D548" s="1">
         <v>1</v>
@@ -13948,7 +13944,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>1613</v>
       </c>
@@ -13956,7 +13952,7 @@
         <v>1614</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D549" s="1">
         <v>4</v>
@@ -13971,7 +13967,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>1614</v>
       </c>
@@ -13979,7 +13975,7 @@
         <v>1620</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D550" s="1">
         <v>1</v>
@@ -13994,7 +13990,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>1620</v>
       </c>
@@ -14002,7 +13998,7 @@
         <v>1626</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D551" s="2" t="s">
         <v>95</v>
@@ -14017,7 +14013,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>1626</v>
       </c>
@@ -14025,7 +14021,7 @@
         <v>1629</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D552" s="1">
         <v>1</v>
@@ -14040,7 +14036,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>1629</v>
       </c>
@@ -14048,7 +14044,7 @@
         <v>1632</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D553" s="1">
         <v>5</v>
@@ -14063,7 +14059,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>1632</v>
       </c>
@@ -14071,7 +14067,7 @@
         <v>1637</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D554" s="1">
         <v>1</v>
@@ -14086,7 +14082,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>1637</v>
       </c>
@@ -14094,7 +14090,7 @@
         <v>1638</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D555" s="2" t="s">
         <v>102</v>
@@ -14109,7 +14105,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>1638</v>
       </c>
@@ -14117,7 +14113,7 @@
         <v>1640</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D556" s="1">
         <v>1</v>
@@ -14132,7 +14128,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>1640</v>
       </c>
@@ -14140,7 +14136,7 @@
         <v>1641</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D557" s="1">
         <v>4</v>
@@ -14155,7 +14151,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>1641</v>
       </c>
@@ -14163,7 +14159,7 @@
         <v>1643</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D558" s="1">
         <v>1</v>
@@ -14178,7 +14174,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>1643</v>
       </c>
@@ -14186,7 +14182,7 @@
         <v>1644</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D559" s="1">
         <v>5</v>
@@ -14201,7 +14197,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>1644</v>
       </c>
@@ -14209,7 +14205,7 @@
         <v>1649</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D560" s="1">
         <v>1</v>
@@ -14224,7 +14220,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>1649</v>
       </c>
@@ -14232,10 +14228,10 @@
         <v>1650</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D561" s="1" t="s">
-        <v>106</v>
+        <v>191</v>
+      </c>
+      <c r="D561" s="1">
+        <v>5</v>
       </c>
       <c r="E561" s="1" t="s">
         <v>57</v>
@@ -14244,10 +14240,10 @@
         <v>1</v>
       </c>
       <c r="G561" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>1650</v>
       </c>
@@ -14255,7 +14251,7 @@
         <v>1652</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D562" s="1">
         <v>1</v>
@@ -14270,7 +14266,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>1652</v>
       </c>
@@ -14278,7 +14274,7 @@
         <v>1653</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D563" s="1">
         <v>5</v>
@@ -14293,7 +14289,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>1653</v>
       </c>
@@ -14301,7 +14297,7 @@
         <v>1655</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D564" s="1">
         <v>1</v>
@@ -14316,7 +14312,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>1655</v>
       </c>
@@ -14324,7 +14320,7 @@
         <v>1656</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D565" s="2" t="s">
         <v>80</v>
@@ -14339,7 +14335,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>1656</v>
       </c>
@@ -14347,7 +14343,7 @@
         <v>1661</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D566" s="1">
         <v>6</v>
@@ -14362,7 +14358,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>1661</v>
       </c>
@@ -14370,22 +14366,22 @@
         <v>1662</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D567" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E567" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F567" s="1">
+        <v>1</v>
+      </c>
+      <c r="G567" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F567" s="1">
-        <v>1</v>
-      </c>
-      <c r="G567" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>1662</v>
       </c>
@@ -14393,7 +14389,7 @@
         <v>1664</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D568" s="1">
         <v>6</v>
@@ -14408,7 +14404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>1664</v>
       </c>
@@ -14416,22 +14412,22 @@
         <v>1665</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D569" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E569" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F569" s="1">
+        <v>1</v>
+      </c>
+      <c r="G569" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F569" s="1">
-        <v>1</v>
-      </c>
-      <c r="G569" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>1665</v>
       </c>
@@ -14439,7 +14435,7 @@
         <v>1667</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D570" s="1">
         <v>6</v>
@@ -14454,7 +14450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>1667</v>
       </c>
@@ -14462,22 +14458,22 @@
         <v>1668</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D571" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E571" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E571" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F571" s="1">
         <v>3</v>
       </c>
       <c r="G571" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>1668</v>
       </c>
@@ -14485,7 +14481,7 @@
         <v>1670</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D572" s="1">
         <v>2</v>
@@ -14497,10 +14493,10 @@
         <v>1</v>
       </c>
       <c r="G572" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>1670</v>
       </c>
@@ -14508,22 +14504,22 @@
         <v>1671</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D573" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E573" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F573" s="1">
+        <v>1</v>
+      </c>
+      <c r="G573" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F573" s="1">
-        <v>1</v>
-      </c>
-      <c r="G573" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>1671</v>
       </c>
@@ -14531,7 +14527,7 @@
         <v>1673</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D574" s="1">
         <v>2</v>
@@ -14543,10 +14539,10 @@
         <v>1</v>
       </c>
       <c r="G574" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>1673</v>
       </c>
@@ -14554,22 +14550,22 @@
         <v>1674</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D575" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E575" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="E575" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="F575" s="1">
         <v>3</v>
       </c>
       <c r="G575" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>1674</v>
       </c>
@@ -14577,22 +14573,22 @@
         <v>1676</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D576" s="1">
         <v>5</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F576" s="1">
         <v>1</v>
       </c>
       <c r="G576" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>1676</v>
       </c>
@@ -14600,22 +14596,22 @@
         <v>1677</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E577" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F577" s="1">
+        <v>1</v>
+      </c>
+      <c r="G577" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F577" s="1">
-        <v>1</v>
-      </c>
-      <c r="G577" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>1677</v>
       </c>
@@ -14623,22 +14619,22 @@
         <v>1679</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D578" s="1">
         <v>5</v>
       </c>
       <c r="E578" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F578" s="1">
+        <v>0</v>
+      </c>
+      <c r="G578" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F578" s="1">
-        <v>0</v>
-      </c>
-      <c r="G578" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>1679</v>
       </c>
@@ -14646,7 +14642,7 @@
         <v>1680</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D579" s="1">
         <v>5</v>
@@ -14658,10 +14654,10 @@
         <v>3</v>
       </c>
       <c r="G579" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>1680</v>
       </c>
@@ -14669,7 +14665,7 @@
         <v>1686</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D580" s="1">
         <v>1</v>
@@ -14684,7 +14680,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>1686</v>
       </c>
@@ -14692,22 +14688,22 @@
         <v>1692</v>
       </c>
       <c r="C581" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D581" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D581" s="2" t="s">
+      <c r="E581" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E581" s="1" t="s">
+      <c r="F581" s="1">
+        <v>1</v>
+      </c>
+      <c r="G581" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F581" s="1">
-        <v>1</v>
-      </c>
-      <c r="G581" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>1692</v>
       </c>
@@ -14715,7 +14711,7 @@
         <v>1715</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D582" s="1">
         <v>1</v>
@@ -14727,10 +14723,10 @@
         <v>2</v>
       </c>
       <c r="G582" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>1715</v>
       </c>
@@ -14738,22 +14734,22 @@
         <v>1716</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D583" s="1">
         <v>5</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F583" s="1">
         <v>0</v>
       </c>
       <c r="G583" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>1716</v>
       </c>
@@ -14761,22 +14757,22 @@
         <v>1722</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D584" s="1">
         <v>1</v>
       </c>
       <c r="E584" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F584" s="1">
+        <v>0</v>
+      </c>
+      <c r="G584" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F584" s="1">
-        <v>0</v>
-      </c>
-      <c r="G584" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>1722</v>
       </c>
@@ -14784,7 +14780,7 @@
         <v>1725</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D585" s="1">
         <v>1</v>
@@ -14799,7 +14795,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>1725</v>
       </c>
@@ -14807,7 +14803,7 @@
         <v>1728</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D586" s="1">
         <v>5</v>
@@ -14822,7 +14818,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>1728</v>
       </c>
@@ -14830,7 +14826,7 @@
         <v>1731</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D587" s="1">
         <v>1</v>
@@ -14845,7 +14841,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>1731</v>
       </c>
@@ -14853,22 +14849,22 @@
         <v>1734</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D588" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E588" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F588" s="1">
+        <v>1</v>
+      </c>
+      <c r="G588" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F588" s="1">
-        <v>1</v>
-      </c>
-      <c r="G588" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>1734</v>
       </c>
@@ -14876,7 +14872,7 @@
         <v>1737</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D589" s="1">
         <v>4</v>
@@ -14888,10 +14884,10 @@
         <v>0</v>
       </c>
       <c r="G589" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>1737</v>
       </c>
@@ -14899,7 +14895,7 @@
         <v>1740</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D590" s="1">
         <v>5</v>
@@ -14914,7 +14910,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>1740</v>
       </c>
@@ -14922,7 +14918,7 @@
         <v>1746</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D591" s="1">
         <v>1</v>
@@ -14937,7 +14933,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>1746</v>
       </c>
@@ -14945,7 +14941,7 @@
         <v>1749</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D592" s="1">
         <v>1</v>
@@ -14960,7 +14956,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>1749</v>
       </c>
@@ -14968,7 +14964,7 @@
         <v>1752</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D593" s="1">
         <v>5</v>
@@ -14983,7 +14979,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>1752</v>
       </c>
@@ -14991,7 +14987,7 @@
         <v>1755</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D594" s="1">
         <v>1</v>
@@ -15006,7 +15002,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>1755</v>
       </c>
@@ -15014,22 +15010,22 @@
         <v>1758</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D595" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E595" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F595" s="1">
+        <v>1</v>
+      </c>
+      <c r="G595" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F595" s="1">
-        <v>1</v>
-      </c>
-      <c r="G595" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>1758</v>
       </c>
@@ -15037,7 +15033,7 @@
         <v>1761</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D596" s="1">
         <v>4</v>
@@ -15049,10 +15045,10 @@
         <v>0</v>
       </c>
       <c r="G596" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>1761</v>
       </c>
@@ -15060,7 +15056,7 @@
         <v>1764</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D597" s="1">
         <v>5</v>
@@ -15075,7 +15071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>1764</v>
       </c>
@@ -15083,7 +15079,7 @@
         <v>1767</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D598" s="1">
         <v>1</v>
@@ -15098,7 +15094,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>1767</v>
       </c>
@@ -15106,22 +15102,22 @@
         <v>1770</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D599" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E599" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F599" s="1">
+        <v>1</v>
+      </c>
+      <c r="G599" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F599" s="1">
-        <v>1</v>
-      </c>
-      <c r="G599" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>1770</v>
       </c>
@@ -15129,7 +15125,7 @@
         <v>1773</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D600" s="1">
         <v>4</v>
@@ -15141,10 +15137,10 @@
         <v>0</v>
       </c>
       <c r="G600" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>1773</v>
       </c>
@@ -15152,7 +15148,7 @@
         <v>1776</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D601" s="1">
         <v>5</v>
@@ -15167,7 +15163,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>1776</v>
       </c>
@@ -15175,7 +15171,7 @@
         <v>1779</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D602" s="1">
         <v>1</v>
@@ -15190,7 +15186,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>1779</v>
       </c>
@@ -15198,7 +15194,7 @@
         <v>1782</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D603" s="1">
         <v>5</v>
@@ -15213,7 +15209,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>1782</v>
       </c>
@@ -15221,7 +15217,7 @@
         <v>1785</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D604" s="1">
         <v>1</v>
@@ -15236,7 +15232,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>1785</v>
       </c>
@@ -15244,7 +15240,7 @@
         <v>1797</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D605" s="1">
         <v>5</v>
@@ -15259,7 +15255,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>1797</v>
       </c>
@@ -15267,7 +15263,7 @@
         <v>1800</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D606" s="1">
         <v>1</v>
@@ -15282,7 +15278,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>1800</v>
       </c>
@@ -15290,22 +15286,22 @@
         <v>1803</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D607" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F607" s="1">
         <v>0</v>
       </c>
       <c r="G607" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>1803</v>
       </c>
@@ -15313,7 +15309,7 @@
         <v>1806</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D608" s="1">
         <v>4</v>
@@ -15325,10 +15321,10 @@
         <v>0</v>
       </c>
       <c r="G608" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>1806</v>
       </c>
@@ -15336,7 +15332,7 @@
         <v>1809</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D609" s="1">
         <v>4</v>
@@ -15348,10 +15344,10 @@
         <v>1</v>
       </c>
       <c r="G609" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>1809</v>
       </c>
@@ -15359,22 +15355,22 @@
         <v>1812</v>
       </c>
       <c r="C610" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D610" s="1">
+        <v>2</v>
+      </c>
+      <c r="E610" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D610" s="1">
-        <v>2</v>
-      </c>
-      <c r="E610" s="1" t="s">
+      <c r="F610" s="1">
+        <v>0</v>
+      </c>
+      <c r="G610" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F610" s="1">
-        <v>0</v>
-      </c>
-      <c r="G610" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>1812</v>
       </c>
@@ -15382,22 +15378,22 @@
         <v>1815</v>
       </c>
       <c r="C611" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D611" s="1">
         <v>5</v>
       </c>
       <c r="E611" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F611" s="1">
+        <v>1</v>
+      </c>
+      <c r="G611" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F611" s="1">
-        <v>1</v>
-      </c>
-      <c r="G611" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>1815</v>
       </c>
@@ -15405,7 +15401,7 @@
         <v>1818</v>
       </c>
       <c r="C612" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D612" s="1">
         <v>1</v>
@@ -15420,7 +15416,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>1818</v>
       </c>
@@ -15428,7 +15424,7 @@
         <v>1821</v>
       </c>
       <c r="C613" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D613" s="1">
         <v>1</v>
@@ -15443,7 +15439,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>1821</v>
       </c>
@@ -15451,7 +15447,7 @@
         <v>1824</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D614" s="1">
         <v>5</v>
@@ -15466,7 +15462,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>1824</v>
       </c>
@@ -15474,7 +15470,7 @@
         <v>1827</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D615" s="1">
         <v>1</v>
@@ -15489,7 +15485,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>1827</v>
       </c>
@@ -15497,7 +15493,7 @@
         <v>1830</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D616" s="1">
         <v>5</v>
@@ -15512,7 +15508,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>1830</v>
       </c>
@@ -15520,7 +15516,7 @@
         <v>1833</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D617" s="1">
         <v>1</v>
@@ -15535,7 +15531,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>1833</v>
       </c>
@@ -15543,7 +15539,7 @@
         <v>1836</v>
       </c>
       <c r="C618" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D618" s="1">
         <v>5</v>
@@ -15558,7 +15554,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>1836</v>
       </c>
@@ -15566,7 +15562,7 @@
         <v>1839</v>
       </c>
       <c r="C619" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D619" s="1">
         <v>1</v>
@@ -15581,7 +15577,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>1839</v>
       </c>
@@ -15589,7 +15585,7 @@
         <v>1842</v>
       </c>
       <c r="C620" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D620" s="1">
         <v>5</v>
@@ -15604,7 +15600,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>1842</v>
       </c>
@@ -15612,7 +15608,7 @@
         <v>1845</v>
       </c>
       <c r="C621" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D621" s="1">
         <v>1</v>
@@ -15627,7 +15623,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>1845</v>
       </c>
@@ -15635,7 +15631,7 @@
         <v>1848</v>
       </c>
       <c r="C622" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D622" s="1">
         <v>5</v>
@@ -15650,7 +15646,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>1848</v>
       </c>
@@ -15658,7 +15654,7 @@
         <v>1860</v>
       </c>
       <c r="C623" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D623" s="1">
         <v>1</v>
@@ -15673,7 +15669,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>1860</v>
       </c>
@@ -15681,7 +15677,7 @@
         <v>1863</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D624" s="1">
         <v>5</v>
@@ -15696,7 +15692,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>1863</v>
       </c>
@@ -15704,7 +15700,7 @@
         <v>1869</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D625" s="1">
         <v>1</v>
